--- a/output/Lexical Unit Predictions.xlsx
+++ b/output/Lexical Unit Predictions.xlsx
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2432,13 +2432,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6148,7 +6148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Hit_or_miss</t>
+          <t>Success_or_failure</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -13067,17 +13067,17 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Mass_motion</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>throng.v</t>
+          <t>thronged.a</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -13087,17 +13087,17 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>thronged.a</t>
+          <t>thronging.a</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -13111,83 +13111,83 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>thronging.a</t>
+          <t>tile.v</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>tile.v</t>
+          <t>tiled.a</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>tiled.a</t>
+          <t>to.prep</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>to.prep</t>
+          <t>toddle.v</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -13197,17 +13197,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>toddle.v</t>
+          <t>toenail.n</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -13217,17 +13217,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>toenail.n</t>
+          <t>torrent.n</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -13237,17 +13237,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>torrent.n</t>
+          <t>tourist.n</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Touring</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Touring</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -13257,17 +13257,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>tourist.n</t>
+          <t>traditional.a</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Touring</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Touring</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -13277,17 +13277,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>traditional.a</t>
+          <t>trip.n</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -13297,17 +13297,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>trip.n</t>
+          <t>true.a</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Exemplar</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Exemplar</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -13317,17 +13317,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>true.a</t>
+          <t>tureen.n</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Exemplar</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Exemplar</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -13337,17 +13337,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>tureen.n</t>
+          <t>two.num</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -13357,17 +13357,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>two.num</t>
+          <t>use.n</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -13377,17 +13377,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>use.n</t>
+          <t>use.v</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Using</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Using</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -13397,17 +13397,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>use.v</t>
+          <t>valise.n</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Using</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Using</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -13417,57 +13417,57 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>valise.n</t>
+          <t>varnished.a</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>varnished.a</t>
+          <t>vehicle.n</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>vehicle.n</t>
+          <t>vestment.n</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -13477,17 +13477,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>vestment.n</t>
+          <t>village.n</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -13497,17 +13497,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>village.n</t>
+          <t>visible.a</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Obviousness</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Obviousness</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -13517,57 +13517,57 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>visible.a</t>
+          <t>wallpapered.a</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Obviousness</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Obviousness</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>wallpapered.a</t>
+          <t>warm.v</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Cause_temperature_change</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Cause_temperature_change</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>warm.v</t>
+          <t>wart.n</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cause_temperature_change</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Cause_temperature_change</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -13577,17 +13577,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>wart.n</t>
+          <t>weekend.n</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -13597,17 +13597,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>weekend.n</t>
+          <t>western.a</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -13617,17 +13617,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>western.a</t>
+          <t>when.adv</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -13637,17 +13637,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>when.adv</t>
+          <t>white.a</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -13657,17 +13657,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>white.a</t>
+          <t>wife.n</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -13677,19 +13677,15 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>wife.n</t>
+          <t>with on.idio</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Personal_relationship</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Personal_relationship</t>
-        </is>
-      </c>
+          <t>Wearing</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="n">
         <v>1</v>
       </c>
@@ -13697,15 +13693,19 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>with on.idio</t>
+          <t>woman.n</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Wearing</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
       <c r="D381" t="n">
         <v>1</v>
       </c>
@@ -13713,40 +13713,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>woman.n</t>
+          <t>world.n</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>world.n</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Political_locales</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Political_locales</t>
-        </is>
-      </c>
-      <c r="D383" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31876,7 +31856,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Hit_or_miss</t>
+          <t>Success_or_failure</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -34576,7 +34556,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
@@ -41370,12 +41350,12 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Mass_motion</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t xml:space="preserve">The streets are quite narrow , and thronged with people . </t>
+          <t xml:space="preserve">This was music spawned in secret clubs that thronged with gay blacks and Latins . </t>
         </is>
       </c>
     </row>
@@ -41397,7 +41377,7 @@
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t xml:space="preserve">This was music spawned in secret clubs that thronged with gay blacks and Latins . </t>
+          <t xml:space="preserve">A gorgeously dressed footman inspected her ticket , then bowed her into the hallway which was brilliant with candles and thronged with people . </t>
         </is>
       </c>
     </row>
@@ -41419,7 +41399,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t xml:space="preserve">A gorgeously dressed footman inspected her ticket , then bowed her into the hallway which was brilliant with candles and thronged with people . </t>
+          <t xml:space="preserve">The streets are quite narrow , and thronged with people . </t>
         </is>
       </c>
     </row>

--- a/output/Lexical Unit Predictions.xlsx
+++ b/output/Lexical Unit Predictions.xlsx
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1024,13 +1024,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1296,13 +1296,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1504,13 +1504,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1552,13 +1552,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3584,13 +3584,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4384,13 +4384,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4576,13 +4576,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6148,7 +6148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6215,13 +6215,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>abandon.v</t>
+          <t>abandoned.a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6231,17 +6231,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>abandoned.a</t>
+          <t>abandonment.n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6255,33 +6255,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>abandonment.n</t>
+          <t>abound.v</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Abundance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Abundance</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>abound.v</t>
+          <t>abundant.a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6295,43 +6295,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>abundant.a</t>
+          <t>according to.prep</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Abundance</t>
+          <t>Attributed_information</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abundance</t>
+          <t>Attributed_information</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>according to.prep</t>
+          <t>acne.n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attributed_information</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Attributed_information</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -6341,17 +6341,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>acne.n</t>
+          <t>acre.n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Measure_area</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Measure_area</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -6361,17 +6361,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>acre.n</t>
+          <t>add.v</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Measure_area</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Measure_area</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -6381,57 +6381,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>add.v</t>
+          <t>adorned.a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>adorned.a</t>
+          <t>all over.prep</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Locative_relation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Locative_relation</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>all over.prep</t>
+          <t>all.a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Locative_relation</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Locative_relation</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -6441,17 +6441,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>all.a</t>
+          <t>along with.prep</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Accompaniment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Accompaniment</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -6461,17 +6461,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>along with.prep</t>
+          <t>always.adv</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Accompaniment</t>
+          <t>Frequency</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Accompaniment</t>
+          <t>Frequency</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -6481,17 +6481,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>always.adv</t>
+          <t>anger.n</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Emotion_directed</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Emotion_directed</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -6501,17 +6501,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>anger.n</t>
+          <t>another.a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Emotion_directed</t>
+          <t>Increment</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Emotion_directed</t>
+          <t>Increment</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -6521,17 +6521,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>another.a</t>
+          <t>apple.n</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Increment</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Increment</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -6541,17 +6541,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>apple.n</t>
+          <t>apron.n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -6561,17 +6561,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>apron.n</t>
+          <t>archipelago.n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -6581,17 +6581,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>archipelago.n</t>
+          <t>array.n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -6601,57 +6601,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>array.n</t>
+          <t>asphalted.a</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Diversity</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Diversity</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>asphalted.a</t>
+          <t>assume.v</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Adopt_selection</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Adopt_selection</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>assume.v</t>
+          <t>at.prep</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Adopt_selection</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adopt_selection</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -6661,17 +6661,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>at.prep</t>
+          <t>average.a</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Typicality</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Typicality</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -6681,21 +6681,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>average.a</t>
+          <t>bake.v</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Typicality</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Typicality</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -6709,29 +6709,25 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Absorb_heat</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bake.v</t>
+          <t>become.v</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Becoming</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cooking_creation</t>
+          <t>Becoming</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -6741,27 +6737,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>become.v</t>
+          <t>bedecked.a</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Becoming</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Becoming</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bedecked.a</t>
+          <t>bejewelled.a</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6769,45 +6765,45 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bejewelled.a</t>
+          <t>belt.n</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Accoutrements</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Accoutrements</t>
+        </is>
+      </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>belt.n</t>
+          <t>bent.a</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Accoutrements</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Accoutrements</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -6817,53 +6813,53 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bent.a</t>
+          <t>bespattered.a</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purpose</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Purpose</t>
-        </is>
-      </c>
+          <t>Abounding_with</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bespattered.a</t>
+          <t>biscuit.n</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>biscuit.n</t>
+          <t>blanket.v</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -6873,57 +6869,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>blanket.v</t>
+          <t>blanketed.a</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>blanketed.a</t>
+          <t>body.n</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>body.n</t>
+          <t>boot.n</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -6933,17 +6929,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>boot.n</t>
+          <t>bottom.n</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -6953,177 +6949,177 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bottom.n</t>
+          <t>brimming.a</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>brimming.a</t>
+          <t>broken.a</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Being_operational</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Being_operational</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>broken.a</t>
+          <t>brushed.a</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Being_operational</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Being_operational</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>brushed.a</t>
+          <t>business.n</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Businesses</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Businesses</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>business.n</t>
+          <t>busy.a</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Businesses</t>
+          <t>Lively_place</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Businesses</t>
+          <t>Lively_place</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>busy.a</t>
+          <t>butter.v</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lively_place</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lively_place</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>butter.v</t>
+          <t>buttered.a</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>buttered.a</t>
+          <t>buy.v</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Commerce_buy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Commerce_buy</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>buy.v</t>
+          <t>byzantine.a</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Commerce_buy</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Commerce_buy</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -7133,17 +7129,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>byzantine.a</t>
+          <t>call.v</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Deserving</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Deserving</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -7153,17 +7149,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>call.v</t>
+          <t>carelessness.n</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Deserving</t>
+          <t>Mental_property</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Deserving</t>
+          <t>Mental_property</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -7173,17 +7169,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>carelessness.n</t>
+          <t>carrot.n</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mental_property</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mental_property</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -7193,17 +7189,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>carrot.n</t>
+          <t>carry.v</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Carry_goods</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Carry_goods</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -7213,17 +7209,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>carry.v</t>
+          <t>cart.n</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Carry_goods</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carry_goods</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -7233,59 +7229,55 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cart.n</t>
+          <t>center.n</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>center.n</t>
+          <t>central.a</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
+          <t>Part_inner_outer</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
+          <t>Part_inner_outer</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>central.a</t>
+          <t>charge.v</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Part_inner_outer</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Part_inner_outer</t>
-        </is>
-      </c>
+          <t>Judgment_communication</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>1</v>
       </c>
@@ -7293,17 +7285,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>charge.v</t>
+          <t>chemical weapon.n</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Judgment_communication</t>
+          <t>Weapon</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Notification_of_charges</t>
+          <t>Weapon</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -7313,17 +7305,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>chemical weapon.n</t>
+          <t>chemical.n</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Weapon</t>
+          <t>Substance</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Weapon</t>
+          <t>Substance</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -7333,17 +7325,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>chemical.n</t>
+          <t>chemise.n</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Substance</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Substance</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -7353,17 +7345,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>chemise.n</t>
+          <t>chest.n</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -7373,39 +7365,35 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>chest.n</t>
+          <t>chinese.a</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>chinese.a</t>
+          <t>chock-a-block.a</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
+          <t>Abounding_with</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>3</v>
       </c>
@@ -7413,7 +7401,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>chock-a-block.a</t>
+          <t>chock-full.a</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7423,39 +7411,43 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>chock-full.a</t>
+          <t>cite.v</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Adducing</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Adducing</t>
+        </is>
+      </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cite.v</t>
+          <t>city.n</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Adducing</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Adducing</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -7465,21 +7457,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>city.n</t>
+          <t>coat.v</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7490,72 +7482,72 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>coat.v</t>
+          <t>coated.a</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>coated.a</t>
+          <t>commerce.n</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Commerce_scenario</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Commerce_scenario</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>commerce.n</t>
+          <t>companion.n</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Commerce_scenario</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Commerce_scenario</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -7565,57 +7557,57 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>companion.n</t>
+          <t>company.n</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Personal_relationship</t>
+          <t>Businesses</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Personal_relationship</t>
+          <t>Businesses</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>company.n</t>
+          <t>complete.a</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Businesses</t>
+          <t>Completeness</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Businesses</t>
+          <t>Completeness</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>complete.a</t>
+          <t>complete.v</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Completeness</t>
+          <t>Activity_finish</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Completeness</t>
+          <t>Activity_finish</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -7625,19 +7617,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>complete.v</t>
+          <t>conclude.v</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Activity_finish</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Activity_finish</t>
-        </is>
-      </c>
+          <t>Coming_to_believe</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>1</v>
       </c>
@@ -7645,17 +7633,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>conclude.v</t>
+          <t>confederate.n</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Coming_to_believe</t>
+          <t>Collaboration</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Activity_finish</t>
+          <t>Collaboration</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -7665,17 +7653,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>confederate.n</t>
+          <t>constantly.adv</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Frequency</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Collaboration</t>
+          <t>Frequency</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -7685,17 +7673,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>constantly.adv</t>
+          <t>construction.n</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Building</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Building</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -7705,17 +7693,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>construction.n</t>
+          <t>control.v</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Building</t>
+          <t>Being_in_control</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Building</t>
+          <t>Being_in_control</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -7725,21 +7713,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>control.v</t>
+          <t>covered.a</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Being_in_control</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -7753,29 +7741,25 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>covered.a</t>
+          <t>craft.n</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eclipse</t>
+          <t>Craft</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -7785,27 +7769,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>craft.n</t>
+          <t>crammed.a</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Craft</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>crammed.a</t>
+          <t>crawl.v</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7819,13 +7803,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>crawl.v</t>
+          <t>crawling.a</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7839,13 +7823,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>crawl.v</t>
+          <t>crowded.a</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7855,67 +7839,67 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>crawling.a</t>
+          <t>dark.a</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Morality_evaluation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Morality_evaluation</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>crowded.a</t>
+          <t>deadly.a</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dark.a</t>
+          <t>deck.v</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Morality_evaluation</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Morality_evaluation</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -7925,113 +7909,117 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>deadly.a</t>
+          <t>decked.a</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>deck.v</t>
+          <t>decorated.a</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>decked.a</t>
+          <t>desert.n</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Biological_area</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Biological_area</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>decked.a</t>
+          <t>desire.v</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Desiring</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Desiring</t>
+        </is>
+      </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>decorated.a</t>
+          <t>dinner.n</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Social_event</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Social_event</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>desert.n</t>
+          <t>dish.n</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Biological_area</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Biological_area</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -8041,17 +8029,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>desire.v</t>
+          <t>district.n</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Desiring</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Desiring</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -8061,17 +8049,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dinner.n</t>
+          <t>diverse.a</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Social_event</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Social_event</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -8081,37 +8069,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dish.n</t>
+          <t>dotted.a</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>district.n</t>
+          <t>drama.n</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -8121,97 +8109,97 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>diverse.a</t>
+          <t>draped.a</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Diversity</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Diversity</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dotted.a</t>
+          <t>dressed.a</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Wearing</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Wearing</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>drama.n</t>
+          <t>drizzled.a</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>draped.a</t>
+          <t>dub.v</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Name_conferral</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Name_conferral</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dressed.a</t>
+          <t>dull.a</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Wearing</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wearing</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -8221,7 +8209,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>drizzled.a</t>
+          <t>dusted.a</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8235,23 +8223,23 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>dub.v</t>
+          <t>duty.n</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Name_conferral</t>
+          <t>Being_obligated</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Name_conferral</t>
+          <t>Being_obligated</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -8261,17 +8249,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>dull.a</t>
+          <t>eat.v</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Ingestion</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Ingestion</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -8281,37 +8269,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>dusted.a</t>
+          <t>effect.n</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Objective_influence</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Objective_influence</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>duty.n</t>
+          <t>egg.n</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Being_obligated</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Being_obligated</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -8321,17 +8309,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>eat.v</t>
+          <t>embellish.v</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ingestion</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ingestion</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -8341,37 +8329,37 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>effect.n</t>
+          <t>embellished.a</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Objective_influence</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Objective_influence</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>egg.n</t>
+          <t>equipment.n</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Gizmo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Gizmo</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -8381,17 +8369,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>embellish.v</t>
+          <t>execution.n</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Execution</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Execution</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -8401,37 +8389,37 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>embellished.a</t>
+          <t>exhale.v</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Emitting</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Emitting</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>equipment.n</t>
+          <t>expect.v</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gizmo</t>
+          <t>Expectation</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Gizmo</t>
+          <t>Expectation</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -8441,17 +8429,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>execution.n</t>
+          <t>experience.n</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Execution</t>
+          <t>Perception_experience</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Execution</t>
+          <t>Perception_experience</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -8461,17 +8449,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>exhale.v</t>
+          <t>face.v</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Emitting</t>
+          <t>Confronting_problem</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Emitting</t>
+          <t>Confronting_problem</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -8481,17 +8469,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>expect.v</t>
+          <t>family.n</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Expectation</t>
+          <t>Kinship</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Expectation</t>
+          <t>Kinship</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -8501,17 +8489,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>experience.n</t>
+          <t>farmer.n</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Perception_experience</t>
+          <t>People_by_vocation</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Expertise</t>
+          <t>People_by_vocation</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -8521,17 +8509,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>face.v</t>
+          <t>fatal.a</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Confronting_problem</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Confronting_problem</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -8541,17 +8529,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>family.n</t>
+          <t>ferry.n</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Kinship</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Kinship</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -8561,57 +8549,57 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>farmer.n</t>
+          <t>festoon.v</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>People_by_vocation</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>People_by_vocation</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>fatal.a</t>
+          <t>festooned.a</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ferry.n</t>
+          <t>fill.v</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -8621,57 +8609,57 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>festoon.v</t>
+          <t>filled.a</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>festooned.a</t>
+          <t>first.adv</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>First_experience</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>First_experience</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>fill.v</t>
+          <t>flare.v</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Location_of_light</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Location_of_light</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -8681,37 +8669,37 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>filled.a</t>
+          <t>flatten.v</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Reshaping</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Reshaping</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>first.adv</t>
+          <t>flee.v</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>First_experience</t>
+          <t>Fleeing</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>First_experience</t>
+          <t>Fleeing</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -8721,17 +8709,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>flare.v</t>
+          <t>follow.v</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Location_of_light</t>
+          <t>Relative_time</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Location_of_light</t>
+          <t>Relative_time</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -8741,59 +8729,51 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>flatten.v</t>
+          <t>forget.v</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Reshaping</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Reshaping</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>flee.v</t>
+          <t>forget.v</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fleeing</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Fleeing</t>
-        </is>
-      </c>
+          <t>Abandonment</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>follow.v</t>
+          <t>forget.v</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Relative_time</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Relative_time</t>
-        </is>
-      </c>
+          <t>Remembering_experience</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
         <v>1</v>
       </c>
@@ -8801,77 +8781,77 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>forget.v</t>
+          <t>fort.n</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>forget.v</t>
+          <t>found.v</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Intentionally_create</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Remembering_information</t>
+          <t>Intentionally_create</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>forget.v</t>
+          <t>fragment.n</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Remembering_experience</t>
+          <t>Part_piece</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Remembering_information</t>
+          <t>Part_piece</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fort.n</t>
+          <t>freeway.n</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -8881,17 +8861,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>found.v</t>
+          <t>from.prep</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Intentionally_create</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Intentionally_create</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -8901,37 +8881,33 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>fragment.n</t>
+          <t>from.prep</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Part_piece</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Part_piece</t>
-        </is>
-      </c>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>freeway.n</t>
+          <t>front.n</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -8941,32 +8917,32 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>from.prep</t>
+          <t>full.a</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>from.prep</t>
+          <t>full.a</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -8977,17 +8953,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>front.n</t>
+          <t>gaggle.n</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Aggregate</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>Aggregate</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -8997,37 +8973,37 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>full.a</t>
+          <t>garment.n</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>full.a</t>
+          <t>gas.n</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Substance</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Completeness</t>
+          <t>Substance</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -9037,19 +9013,15 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>gaggle.n</t>
+          <t>gas.n</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Aggregate</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Aggregate</t>
-        </is>
-      </c>
+          <t>Substance</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
         <v>1</v>
       </c>
@@ -9057,17 +9029,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>garment.n</t>
+          <t>geographically.adv</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -9077,133 +9049,137 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>gas.n</t>
+          <t>gild.v</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Substance</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Substance</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>gas.n</t>
+          <t>gilded.a</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Substance</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>Abounding_with</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Abounding_with</t>
+        </is>
+      </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>geographically.adv</t>
+          <t>glazed.a</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>gild.v</t>
+          <t>glen.n</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>gilded.a</t>
+          <t>glow.n</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Light_movement</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Light_movement</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>glazed.a</t>
+          <t>glow.n</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Location_of_light</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Location_of_light</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>glen.n</t>
+          <t>glow.v</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Light_movement</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Light_movement</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -9213,19 +9189,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>glow.n</t>
+          <t>go.v</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Light_movement</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Light_movement</t>
-        </is>
-      </c>
+          <t>Motion</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>1</v>
       </c>
@@ -9233,17 +9205,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>glow.n</t>
+          <t>goblet.n</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Location_of_light</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Location_of_light</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -9253,32 +9225,32 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>glow.v</t>
+          <t>good.a</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Light_movement</t>
+          <t>Desirability</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Light_movement</t>
+          <t>Desirability</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>go.v</t>
+          <t>good.a</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Motion</t>
+          <t>Desirability</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -9289,17 +9261,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>goblet.n</t>
+          <t>good.a</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Usefulness</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Usefulness</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -9309,35 +9281,39 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>good.a</t>
+          <t>goods.n</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Desirability</t>
+          <t>Commerce_scenario</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Desirability</t>
+          <t>Commerce_scenario</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>good.a</t>
+          <t>gorget.n</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Desirability</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>Accoutrements</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Accoutrements</t>
+        </is>
+      </c>
       <c r="D161" t="n">
         <v>1</v>
       </c>
@@ -9345,17 +9321,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>good.a</t>
+          <t>government.n</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Usefulness</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Usefulness</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -9365,17 +9341,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>goods.n</t>
+          <t>harbor.n</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Commerce_scenario</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Commerce_scenario</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -9385,17 +9361,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>gorget.n</t>
+          <t>have.v</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Accoutrements</t>
+          <t>Possession</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Accoutrements</t>
+          <t>Possession</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -9405,17 +9381,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>government.n</t>
+          <t>heap.v</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -9425,57 +9401,53 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>harbor.n</t>
+          <t>heap.v</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
+          <t>Filling</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>have.v</t>
+          <t>heaped.a</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Possession</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Possession</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>heap.v</t>
+          <t>hear.v</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Perception_experience</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Perception_experience</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -9485,57 +9457,57 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>heap.v</t>
+          <t>hectare.n</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Measure_area</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Placing</t>
+          <t>Measure_area</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>heaped.a</t>
+          <t>hill.n</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>hear.v</t>
+          <t>history.n</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Perception_experience</t>
+          <t>History</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Perception_experience</t>
+          <t>History</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -9545,17 +9517,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hectare.n</t>
+          <t>horn.n</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Measure_area</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Measure_area</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -9565,17 +9537,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>hill.n</t>
+          <t>hose.n</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -9585,17 +9557,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>history.n</t>
+          <t>hotel.n</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -9605,19 +9577,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>horn.n</t>
+          <t>hour.n</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Body_parts</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Body_parts</t>
-        </is>
-      </c>
+          <t>Measure_duration</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
         <v>1</v>
       </c>
@@ -9625,17 +9593,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>hose.n</t>
+          <t>house.n</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -9645,17 +9613,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>hotel.n</t>
+          <t>human.n</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>People</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -9665,37 +9633,37 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>hour.n</t>
+          <t>hung.a</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Measure_duration</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>house.n</t>
+          <t>hungry.a</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Biological_urge</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Biological_urge</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -9705,17 +9673,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>human.n</t>
+          <t>in.prep</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -9725,37 +9693,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>hung.a</t>
+          <t>in.prep</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Wearing</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Wearing</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>hungry.a</t>
+          <t>inch.n</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Biological_urge</t>
+          <t>Measure_linear_extent</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Biological_urge</t>
+          <t>Measure_linear_extent</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -9765,17 +9733,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>in.prep</t>
+          <t>individual.n</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>People</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -9785,17 +9753,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>in.prep</t>
+          <t>injected.a</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wearing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wearing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -9805,17 +9773,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>inch.n</t>
+          <t>inside.a</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Measure_linear_extent</t>
+          <t>Part_inner_outer</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Measure_linear_extent</t>
+          <t>Part_inner_outer</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -9825,57 +9793,57 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>individual.n</t>
+          <t>intelligence.n</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>injected.a</t>
+          <t>intelligent.a</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Mental_property</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Mental_property</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>inside.a</t>
+          <t>international.a</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Part_inner_outer</t>
+          <t>Foreign_or_domestic_country</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Part_inner_outer</t>
+          <t>Foreign_or_domestic_country</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -9885,57 +9853,57 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>intelligence.n</t>
+          <t>iranian.a</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Organization</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>intelligent.a</t>
+          <t>irish.a</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Mental_property</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Mental_property</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>international.a</t>
+          <t>island.n</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Foreign_or_domestic_country</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Foreign_or_domestic_country</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -9945,39 +9913,35 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>iranian.a</t>
+          <t>jammed.a</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>irish.a</t>
+          <t>kimono.n</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
         <v>1</v>
       </c>
@@ -9985,17 +9949,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>island.n</t>
+          <t>kind.n</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -10005,32 +9969,32 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>jammed.a</t>
+          <t>kitchen.n</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Building_subparts</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Building_subparts</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>kimono.n</t>
+          <t>knock.v</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Cause_harm</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -10041,17 +10005,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>kind.n</t>
+          <t>known.a</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Being_named</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Being_named</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -10061,57 +10025,57 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>kitchen.n</t>
+          <t>lacquered.a</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Building_subparts</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Building_subparts</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>knock.v</t>
+          <t>large.a</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cause_harm</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cause_harm</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>known.a</t>
+          <t>leader.n</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Being_named</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Being_named</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -10121,75 +10085,71 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>lacquered.a</t>
+          <t>leap.v</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Traversing</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>large.a</t>
+          <t>leave.v</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>leader.n</t>
+          <t>leave.v</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Leadership</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Leadership</t>
-        </is>
-      </c>
+          <t>Abandonment</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>leap.v</t>
+          <t>lethal.a</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Traversing</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
+          <t>Killing</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Killing</t>
+        </is>
+      </c>
       <c r="D204" t="n">
         <v>1</v>
       </c>
@@ -10197,77 +10157,77 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>leave.v</t>
+          <t>lie.v</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Being_located</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Being_located</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>leave.v</t>
+          <t>limb.n</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Abandonment</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Departing</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>lethal.a</t>
+          <t>lined.a</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>lie.v</t>
+          <t>littered.a</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Being_located</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Being_located</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -10277,17 +10237,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>limb.n</t>
+          <t>live.v</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Residence</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Residence</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -10297,37 +10257,37 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>lined.a</t>
+          <t>lobby.n</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Building_subparts</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Building_subparts</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>littered.a</t>
+          <t>machine.n</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Gizmo</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Gizmo</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10337,17 +10297,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>live.v</t>
+          <t>major.a</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Residence</t>
+          <t>Importance</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Residence</t>
+          <t>Importance</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -10357,37 +10317,37 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>lobby.n</t>
+          <t>make.v</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Building_subparts</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Building_subparts</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>machine.n</t>
+          <t>manufacture.v</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Gizmo</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Gizmo</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -10397,17 +10357,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>major.a</t>
+          <t>minister.n</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Importance</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Importance</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -10417,37 +10377,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>make.v</t>
+          <t>miss.v</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Hit_or_miss</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Hit_or_miss</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>manufacture.v</t>
+          <t>mix.v</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Cause_to_amalgamate</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Cause_to_amalgamate</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -10457,19 +10417,15 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>minister.n</t>
+          <t>mix.v</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Leadership</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Leadership</t>
-        </is>
-      </c>
+          <t>Cause_to_amalgamate</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
         <v>1</v>
       </c>
@@ -10477,17 +10433,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>miss.v</t>
+          <t>moored.a</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Hit_or_miss</t>
+          <t>Being_attached</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Success_or_failure</t>
+          <t>Being_attached</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -10497,17 +10453,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>mix.v</t>
+          <t>mormon.n</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cause_to_amalgamate</t>
+          <t>People_by_religion</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Cause_to_amalgamate</t>
+          <t>People_by_religion</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -10517,15 +10473,19 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>mix.v</t>
+          <t>mount.v</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cause_to_amalgamate</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
+          <t>Attaching</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Attaching</t>
+        </is>
+      </c>
       <c r="D221" t="n">
         <v>1</v>
       </c>
@@ -10533,17 +10493,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>moored.a</t>
+          <t>mountain.n</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Being_attached</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Being_attached</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -10553,37 +10513,33 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>mormon.n</t>
+          <t>mr.n</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>People_by_religion</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>People_by_religion</t>
-        </is>
-      </c>
+          <t>Appellations</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>mount.v</t>
+          <t>neighboring.a</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Attaching</t>
+          <t>Adjacency</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Attaching</t>
+          <t>Adjacency</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -10593,55 +10549,55 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>mountain.n</t>
+          <t>night.n</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>mr.n</t>
+          <t>number.n</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Appellations</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
+          <t>Quantified_mass</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Quantified_mass</t>
+        </is>
+      </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>neighboring.a</t>
+          <t>observe.v</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Adjacency</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Adjacency</t>
-        </is>
-      </c>
+          <t>Statement</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
         <v>1</v>
       </c>
@@ -10649,37 +10605,37 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>night.n</t>
+          <t>occupy.v</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
+          <t>Residence</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
+          <t>Residence</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>number.n</t>
+          <t>official.n</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -10689,17 +10645,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>observe.v</t>
+          <t>on.prep</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Spatial_contact</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Spatial_contact</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -10709,87 +10665,87 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>occupy.v</t>
+          <t>one.num</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Residence</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Residence</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>official.n</t>
+          <t>ornamented.a</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>on.prep</t>
+          <t>overcrowded.a</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Spatial_contact</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Spatial_contact</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>one.num</t>
+          <t>overfilled.a</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ornamented.a</t>
+          <t>overfilled.a</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -10797,59 +10753,51 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>overcrowded.a</t>
+          <t>oxidize.v</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Corroding_caused</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>overfilled.a</t>
+          <t>paint.v</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>overfilled.a</t>
+          <t>painted.a</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -10857,23 +10805,31 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Abounding_with</t>
+        </is>
+      </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>oxidize.v</t>
+          <t>palace.n</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Corroding_caused</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr"/>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="D239" t="n">
         <v>1</v>
       </c>
@@ -10881,17 +10837,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>paint.v</t>
+          <t>pancake.n</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -10901,57 +10857,57 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>painted.a</t>
+          <t>panel.v</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>palace.n</t>
+          <t>panelled.a</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>pancake.n</t>
+          <t>path.n</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -10961,17 +10917,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>panel.v</t>
+          <t>pave.v</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -10981,7 +10937,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>panelled.a</t>
+          <t>paved.a</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -10995,23 +10951,23 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>path.n</t>
+          <t>pea.n</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -11021,17 +10977,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>pave.v</t>
+          <t>peninsula.n</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Natural_features</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -11041,37 +10997,37 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>paved.a</t>
+          <t>people.n</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>People</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>pea.n</t>
+          <t>perform.v</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Intentionally_act</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Intentionally_act</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -11081,17 +11037,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>peninsula.n</t>
+          <t>persuade.v</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Suasion</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Natural_features</t>
+          <t>Suasion</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -11101,17 +11057,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>people.n</t>
+          <t>piece.n</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Part_piece</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>Part_piece</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -11121,17 +11077,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>perform.v</t>
+          <t>pile.n</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Intentionally_act</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Intentionally_act</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -11141,17 +11097,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>persuade.v</t>
+          <t>piled.a</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Suasion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Suasion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -11161,37 +11117,37 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>piece.n</t>
+          <t>place.n</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Part_piece</t>
+          <t>Locale</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Part_piece</t>
+          <t>Locale</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>pile.n</t>
+          <t>plant.n</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -11201,17 +11157,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>piled.a</t>
+          <t>plaster.v</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -11221,37 +11177,37 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>place.n</t>
+          <t>plastered.a</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Locale</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Locale</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>plant.n</t>
+          <t>plump.a</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
+          <t>Body_description_holistic</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
+          <t>Body_description_holistic</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -11261,17 +11217,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>plaster.v</t>
+          <t>population.n</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Aggregate</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Aggregate</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -11281,57 +11237,57 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>plastered.a</t>
+          <t>position.v</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Placing</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Placing</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>plump.a</t>
+          <t>pot.n</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Body_description_holistic</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Body_description_holistic</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>population.n</t>
+          <t>potato.n</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Aggregate</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Aggregate</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -11341,57 +11297,57 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>position.v</t>
+          <t>precursor.n</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Placing</t>
+          <t>Ingredients</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Placing</t>
+          <t>Ingredients</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>pot.n</t>
+          <t>produce.v</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>potato.n</t>
+          <t>program.n</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -11401,37 +11357,37 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>precursor.n</t>
+          <t>prosperous.a</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ingredients</t>
+          <t>Wealthiness</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Ingredients</t>
+          <t>Wealthiness</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>produce.v</t>
+          <t>provide.v</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -11441,17 +11397,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>program.n</t>
+          <t>province.n</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -11461,17 +11417,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>prosperous.a</t>
+          <t>quake.n</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Wealthiness</t>
+          <t>Moving_in_place</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Wealthiness</t>
+          <t>Moving_in_place</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -11481,17 +11437,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>provide.v</t>
+          <t>range.v</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Delimitation_of_diversity</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Delimitation_of_diversity</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -11501,17 +11457,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>province.n</t>
+          <t>real.a</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Existence</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Existence</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -11521,17 +11477,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>quake.n</t>
+          <t>refer.v</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Moving_in_place</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Moving_in_place</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -11541,17 +11497,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>range.v</t>
+          <t>refuse.v</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Delimitation_of_diversity</t>
+          <t>Agree_or_refuse_to_act</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Delimitation_of_diversity</t>
+          <t>Agree_or_refuse_to_act</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -11561,17 +11517,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>real.a</t>
+          <t>related.a</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Existence</t>
+          <t>Cognitive_connection</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Existence</t>
+          <t>Cognitive_connection</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -11581,17 +11537,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>refer.v</t>
+          <t>remain.v</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>State_continue</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>State_continue</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -11601,37 +11557,37 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>refuse.v</t>
+          <t>replete.a</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Agree_or_refuse_to_act</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Agree_or_refuse_to_act</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>related.a</t>
+          <t>reply.n</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Cognitive_connection</t>
+          <t>Communication_response</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Cognitive_connection</t>
+          <t>Communication_response</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -11641,57 +11597,53 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>remain.v</t>
+          <t>report.n</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>State_continue</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>State_continue</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>replete.a</t>
+          <t>report.n</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Statement</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
       <c r="D279" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>reply.n</t>
+          <t>report.v</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Communication_response</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Communication_response</t>
+          <t>Statement</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -11701,77 +11653,77 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>report.n</t>
+          <t>reservoir.n</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>report.n</t>
+          <t>restaurant.n</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>report.v</t>
+          <t>rife.a</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>reservoir.n</t>
+          <t>ringer.n</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Cause_to_make_noise</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Cause_to_make_noise</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -11781,57 +11733,49 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>restaurant.n</t>
+          <t>ringer.n</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
+          <t>Cause_to_make_noise</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
       <c r="D285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>rife.a</t>
+          <t>ritual.n</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
       <c r="D286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ringer.n</t>
+          <t>roll.n</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cause_to_make_noise</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Cause_to_make_noise</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -11841,15 +11785,19 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ringer.n</t>
+          <t>rule.v</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Cause_to_make_noise</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr"/>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
       <c r="D288" t="n">
         <v>1</v>
       </c>
@@ -11857,19 +11805,15 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ritual.n</t>
+          <t>sad.a</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Rite</t>
-        </is>
-      </c>
+          <t>Stimulus_focus</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
         <v>1</v>
       </c>
@@ -11877,17 +11821,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>roll.n</t>
+          <t>samovar.n</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -11897,17 +11841,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>rule.v</t>
+          <t>scarce.a</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Scarcity</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Scarcity</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -11917,7 +11861,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>sad.a</t>
+          <t>scary.a</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -11927,7 +11871,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Emotion_directed</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -11937,17 +11881,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>samovar.n</t>
+          <t>scorch.v</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -11957,17 +11901,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>scarce.a</t>
+          <t>scurry.v</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Scarcity</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Scarcity</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -11977,37 +11921,37 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>scary.a</t>
+          <t>shop.n</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Locale_by_use</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>scorch.v</t>
+          <t>shopping.n</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -12017,87 +11961,83 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>scurry.v</t>
+          <t>simmer.v</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>shop.n</t>
+          <t>simmer.v</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Locale_by_use</t>
-        </is>
-      </c>
+          <t>Absorb_heat</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>shopping.n</t>
+          <t>singe.v</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>simmer.v</t>
+          <t>six.num</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>simmer.v</t>
+          <t>sizzle.v</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -12107,47 +12047,47 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Emotion_heat</t>
+          <t>Absorb_heat</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>singe.v</t>
+          <t>skirt.n</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>six.num</t>
+          <t>slay.v</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Killing</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -12157,57 +12097,57 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sizzle.v</t>
+          <t>small.a</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Absorb_heat</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>skirt.n</t>
+          <t>smeared.a</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>slay.v</t>
+          <t>solemn.a</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Killing</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -12217,57 +12157,57 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>small.a</t>
+          <t>some.art</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Proportional_quantity</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Proportional_quantity</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>smeared.a</t>
+          <t>soothe.v</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Experiencer_obj</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Experiencer_obj</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>solemn.a</t>
+          <t>spatter.v</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Cause_fluidic_motion</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Cause_fluidic_motion</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -12277,57 +12217,57 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>some.art</t>
+          <t>spatter.v</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Proportional_quantity</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Proportional_quantity</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>soothe.v</t>
+          <t>spattered.a</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Experiencer_obj</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Experiencer_obj</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>spatter.v</t>
+          <t>splatter.v</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cause_fluidic_motion</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cause_fluidic_motion</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -12337,77 +12277,73 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>spatter.v</t>
+          <t>splattered.a</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Cause_fluidic_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>spatter.v</t>
+          <t>sprinkled.a</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>spattered.a</t>
+          <t>square.n</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Locale_by_use</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>splatter.v</t>
+          <t>staff.n</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Employing</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Employing</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -12417,57 +12353,57 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>splattered.a</t>
+          <t>state.n</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Leadership</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>sprinkled.a</t>
+          <t>step.v</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>square.n</t>
+          <t>stimulating.a</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Locale_by_use</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Shapes</t>
+          <t>Stimulus_focus</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -12477,57 +12413,57 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>staff.n</t>
+          <t>street.n</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Employing</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Employing</t>
+          <t>Roadways</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>state.n</t>
+          <t>strewn.a</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Leadership</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>step.v</t>
+          <t>stud.v</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Distributed_position</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -12537,77 +12473,77 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>stimulating.a</t>
+          <t>studded.a</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Stimulus_focus</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>street.n</t>
+          <t>stuffed.a</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Roadways</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>strewn.a</t>
+          <t>suitcase.n</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>stud.v</t>
+          <t>suited.a</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Suitability</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Distributed_position</t>
+          <t>Suitability</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -12617,57 +12553,57 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>studded.a</t>
+          <t>super.a</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Usefulness</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Usefulness</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>stuffed.a</t>
+          <t>supplier.n</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>suitcase.n</t>
+          <t>supply.n</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -12677,17 +12613,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>suited.a</t>
+          <t>supply.v</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Suitability</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Suitability</t>
+          <t>Supply</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -12697,59 +12633,55 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>super.a</t>
+          <t>surfaced.a</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Usefulness</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Usefulness</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>supplier.n</t>
+          <t>swarm.v</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>supply.n</t>
+          <t>swarm.v</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
+          <t>Mass_motion</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
         <v>1</v>
       </c>
@@ -12757,79 +12689,75 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>supply.v</t>
+          <t>swarming.a</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Supply</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>surfaced.a</t>
+          <t>system.n</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>System</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>System</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>swarm.v</t>
+          <t>take.v</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Removing</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Removing</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>swarm.v</t>
+          <t>tear.v</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+          <t>Cause_to_fragment</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
         <v>1</v>
       </c>
@@ -12837,77 +12765,77 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>swarming.a</t>
+          <t>technology.n</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Artifact</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>system.n</t>
+          <t>teem.v</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>take.v</t>
+          <t>teeming.a</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Removing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Removing</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>tear.v</t>
+          <t>temple.n</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cause_to_fragment</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Removing</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -12917,17 +12845,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>technology.n</t>
+          <t>there be.v</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>Existence</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>Existence</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -12937,27 +12865,27 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>teem.v</t>
+          <t>thin.a</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_description_holistic</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_description_holistic</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>teem.v</t>
+          <t>throng.v</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -12967,17 +12895,17 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>teeming.a</t>
+          <t>thronged.a</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -12991,43 +12919,43 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>temple.n</t>
+          <t>thronging.a</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>there be.v</t>
+          <t>tile.v</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Existence</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Existence</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -13037,97 +12965,97 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>thin.a</t>
+          <t>tiled.a</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Body_description_holistic</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Body_description_holistic</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>throng.v</t>
+          <t>to.prep</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>thronged.a</t>
+          <t>toddle.v</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Self_motion</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>thronging.a</t>
+          <t>toenail.n</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Body_parts</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tile.v</t>
+          <t>torrent.n</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Filling</t>
+          <t>Quantified_mass</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -13137,37 +13065,37 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>tiled.a</t>
+          <t>tourist.n</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Touring</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Touring</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>to.prep</t>
+          <t>traditional.a</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -13177,17 +13105,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>toddle.v</t>
+          <t>trip.n</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -13197,17 +13125,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>toenail.n</t>
+          <t>true.a</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Exemplar</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Body_parts</t>
+          <t>Exemplar</t>
         </is>
       </c>
       <c r="D356" t="n">
@@ -13217,17 +13145,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>torrent.n</t>
+          <t>tureen.n</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Quantified_mass</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -13237,17 +13165,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>tourist.n</t>
+          <t>two.num</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Touring</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Touring</t>
+          <t>Cardinal_numbers</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -13257,17 +13185,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>traditional.a</t>
+          <t>use.n</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -13277,19 +13205,15 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>trip.n</t>
+          <t>use.v</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
+          <t>Using</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
         <v>1</v>
       </c>
@@ -13297,17 +13221,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>true.a</t>
+          <t>valise.n</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Exemplar</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Exemplar</t>
+          <t>Containers</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -13317,37 +13241,37 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>tureen.n</t>
+          <t>varnished.a</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>two.num</t>
+          <t>vehicle.n</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Cardinal_numbers</t>
+          <t>Vehicle</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -13357,17 +13281,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>use.n</t>
+          <t>vestment.n</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -13377,17 +13301,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>use.v</t>
+          <t>village.n</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Using</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Using</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -13397,17 +13321,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>valise.n</t>
+          <t>visible.a</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Obviousness</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Containers</t>
+          <t>Obviousness</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -13417,7 +13341,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>varnished.a</t>
+          <t>wallpapered.a</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -13431,23 +13355,23 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vehicle.n</t>
+          <t>warm.v</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Cause_temperature_change</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Vehicle</t>
+          <t>Cause_temperature_change</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -13457,17 +13381,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>vestment.n</t>
+          <t>wart.n</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Body_mark</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -13477,17 +13401,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>village.n</t>
+          <t>weekend.n</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Political_locales</t>
+          <t>Calendric_unit</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -13497,17 +13421,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>visible.a</t>
+          <t>western.a</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Obviousness</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Obviousness</t>
+          <t>Part_orientational</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -13517,37 +13441,37 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>wallpapered.a</t>
+          <t>when.adv</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Abounding_with</t>
+          <t>Temporal_collocation</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>warm.v</t>
+          <t>white.a</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cause_temperature_change</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Cause_temperature_change</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -13557,17 +13481,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>wart.n</t>
+          <t>wife.n</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Body_mark</t>
+          <t>Personal_relationship</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -13577,19 +13501,15 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>weekend.n</t>
+          <t>with on.idio</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Calendric_unit</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Calendric_unit</t>
-        </is>
-      </c>
+          <t>Wearing</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="n">
         <v>1</v>
       </c>
@@ -13597,17 +13517,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>western.a</t>
+          <t>woman.n</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>People</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Part_orientational</t>
+          <t>People</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -13617,116 +13537,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>when.adv</t>
+          <t>world.n</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Temporal_collocation</t>
+          <t>Political_locales</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>white.a</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="D378" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>wife.n</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Personal_relationship</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Personal_relationship</t>
-        </is>
-      </c>
-      <c r="D379" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>with on.idio</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Wearing</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>woman.n</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
-      <c r="D381" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>world.n</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>Political_locales</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>Political_locales</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13811,7 +13635,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jamie Hill , prosecuting , said Stevenson and a friend took a Nova car from North Skelton and abandoned it in Nottingham .</t>
+          <t>The bank has abandoned all plans to finance roads or logging in Cameroon 's forests , in keeping with its ` stringent policy to protect the rights of indigenous people . "</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13657,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>She had seen no reason to abandon it when she came to Medewich two years ago , even though she might now have been able to afford a car .</t>
+          <t>Jamie Hill , prosecuting , said Stevenson and a friend took a Nova car from North Skelton and abandoned it in Nottingham .</t>
         </is>
       </c>
     </row>
@@ -13855,7 +13679,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>It was Osman 's father Mohamed who had returned in his car for the clothes for Mrs Zamzam 's children just before Um Al-Farajh was finally abandoned by the Palestinian Arabs in 1948 .</t>
+          <t>She had seen no reason to abandon it when she came to Medewich two years ago , even though she might now have been able to afford a car .</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13701,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lola is waiting loyally , if not faithfully , for the lover , Michel ( Jacques Harden ) , who fathered her child and abandoned her seven years before .</t>
+          <t>Unfortunately , as a result of other priorities following the fall of France in June 1940 , the project was abandoned .</t>
         </is>
       </c>
     </row>
@@ -13899,7 +13723,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A pistol was found in a garden at Ava Parade , off Ormeau Road , by police searching the area yesterday after a car was abandoned by two men .</t>
+          <t>Leeds Education Authority has abandoned plans for ` drastic " cuts in travel subsidies for some Catholic students .</t>
         </is>
       </c>
     </row>
@@ -13921,7 +13745,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>What this argument suggests in Gandhi 's case is that he does not abandon his commitment to the principle of non-violence or qualify it in any way when he approves the destruction of life .</t>
+          <t>Moved to rectify this situation , he abandoned plans of working in the missionary field , and offered his services to the Netherlands Indies civil service .</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13767,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>There were , ultimately , some findings that were distinctly incompatible with the theory and it was abandoned by its originators .</t>
+          <t>The council later abandoned its plans to widen the highway and the reversion passed to the first defendants , who were not a highway authority .</t>
         </is>
       </c>
     </row>
@@ -13965,7 +13789,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ironically , Mrs Neil Lyndon has now revealed she was abandoned by her husband last year and only managed to receive child support for their six-year-old son by obtaining a court order .</t>
+          <t>It was Osman 's father Mohamed who had returned in his car for the clothes for Mrs Zamzam 's children just before Um Al-Farajh was finally abandoned by the Palestinian Arabs in 1948 .</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13811,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>She had been abandoned by her family , seen as an unbearable embarrassment and disgrace , " the princess told a conference of medical researchers seeking a cure for AIDS .</t>
+          <t>Lola is waiting loyally , if not faithfully , for the lover , Michel ( Jacques Harden ) , who fathered her child and abandoned her seven years before .</t>
         </is>
       </c>
     </row>
@@ -14009,7 +13833,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Whatever social and political abuses Herod might perpetrate , these were seen merely as symptoms of a much more profound dilemma -- the dilemma of a people who had been abandoned by their God .</t>
+          <t>A pistol was found in a garden at Ava Parade , off Ormeau Road , by police searching the area yesterday after a car was abandoned by two men .</t>
         </is>
       </c>
     </row>
@@ -14031,7 +13855,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A woman abandoned by her husband found her wage of new and crucial importance and looked to the union for support .</t>
+          <t>That project will then be abandoned in favour of some other quickly completable component elsewhere , so that even relatively minor works can take years to finish .</t>
         </is>
       </c>
     </row>
@@ -14053,7 +13877,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>He also fathered a child by Marevna ( Maria Vorobiev ) and abandoned both women when he left for Mexico in 1921 .</t>
+          <t>What this argument suggests in Gandhi 's case is that he does not abandon his commitment to the principle of non-violence or qualify it in any way when he approves the destruction of life .</t>
         </is>
       </c>
     </row>
@@ -14075,7 +13899,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mr. Gonzalez and his colleagues , particularly the finance minister , Carlos Solchaga , are charged with having abandoned their socialist principles and with having become arrogant elitists who refuse even to go on television ( controlled by the state ) to face their accusers .</t>
+          <t>There were , ultimately , some findings that were distinctly incompatible with the theory and it was abandoned by its originators .</t>
         </is>
       </c>
     </row>
@@ -14097,7 +13921,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>It would be sad for Mr. Gonzalez to abandon them to appease his foes .</t>
+          <t>Ironically , Mrs Neil Lyndon has now revealed she was abandoned by her husband last year and only managed to receive child support for their six-year-old son by obtaining a court order .</t>
         </is>
       </c>
     </row>
@@ -14114,12 +13938,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The bank has abandoned all plans to finance roads or logging in Cameroon 's forests , in keeping with its ` stringent policy to protect the rights of indigenous people . "</t>
+          <t>She had been abandoned by her family , seen as an unbearable embarrassment and disgrace , " the princess told a conference of medical researchers seeking a cure for AIDS .</t>
         </is>
       </c>
     </row>
@@ -14136,12 +13960,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Unfortunately , as a result of other priorities following the fall of France in June 1940 , the project was abandoned .</t>
+          <t>The female eider duck is abandoned by her drake just as soon as she starts incubating the eggs .</t>
         </is>
       </c>
     </row>
@@ -14158,12 +13982,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leeds Education Authority has abandoned plans for ` drastic " cuts in travel subsidies for some Catholic students .</t>
+          <t>Whatever social and political abuses Herod might perpetrate , these were seen merely as symptoms of a much more profound dilemma -- the dilemma of a people who had been abandoned by their God .</t>
         </is>
       </c>
     </row>
@@ -14180,12 +14004,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Moved to rectify this situation , he abandoned plans of working in the missionary field , and offered his services to the Netherlands Indies civil service .</t>
+          <t>A woman abandoned by her husband found her wage of new and crucial importance and looked to the union for support .</t>
         </is>
       </c>
     </row>
@@ -14202,12 +14026,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The council later abandoned its plans to widen the highway and the reversion passed to the first defendants , who were not a highway authority .</t>
+          <t>Another vehicle was abandoned at Great Victoria Street .</t>
         </is>
       </c>
     </row>
@@ -14224,12 +14048,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>That project will then be abandoned in favour of some other quickly completable component elsewhere , so that even relatively minor works can take years to finish .</t>
+          <t>Ultimately , therefore , such academics abandon the rigorous analysis of the current content of criminal law and substitute criticism for legal exposition .</t>
         </is>
       </c>
     </row>
@@ -14246,12 +14070,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The female eider duck is abandoned by her drake just as soon as she starts incubating the eggs .</t>
+          <t>He also fathered a child by Marevna ( Maria Vorobiev ) and abandoned both women when he left for Mexico in 1921 .</t>
         </is>
       </c>
     </row>
@@ -14268,12 +14092,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Another vehicle was abandoned at Great Victoria Street .</t>
+          <t>Mr. Gonzalez and his colleagues , particularly the finance minister , Carlos Solchaga , are charged with having abandoned their socialist principles and with having become arrogant elitists who refuse even to go on television ( controlled by the state ) to face their accusers .</t>
         </is>
       </c>
     </row>
@@ -14290,12 +14114,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ultimately , therefore , such academics abandon the rigorous analysis of the current content of criminal law and substitute criticism for legal exposition .</t>
+          <t>It would be sad for Mr. Gonzalez to abandon them to appease his foes .</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14136,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Quitting_a_place</t>
+          <t>Abandonment</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -16774,11 +16598,7 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Cooking_creation</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>The mix is baked for 20 minutes in moulds and served with a vegetable cream sauce , lentils , and sautéed mushrooms .</t>
@@ -18904,11 +18724,7 @@
           <t>Judgment_communication</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Notification_of_charges</t>
-        </is>
-      </c>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
           <t>Mr. Gonzalez and his colleagues , particularly the finance minister , Carlos Solchaga , are charged with having abandoned their socialist principles and with having become arrogant elitists who refuse even to go on television ( controlled by the state ) to face their accusers .</t>
@@ -19742,11 +19558,7 @@
           <t>Coming_to_believe</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Activity_finish</t>
-        </is>
-      </c>
+      <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
           <t>On 8 March 1996 , the Washington Post reported , `` US intelligence officials have concluded that companies in China are providing Iran with several virtually complete factories suited for making deadly poison gases , '' and that Iranian `` military - related organizations '' are buying from China glass - lined vessels for mixing precursors , special air - filtration equipment , and the technology to manufacture these items and others indigenously .</t>
@@ -19832,7 +19644,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>Being_in_control</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -20116,11 +19928,7 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Eclipse</t>
-        </is>
-      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
           <t xml:space="preserve">Even those heathlands which have not been reafforested are rapidly becoming covered with silver birch and self-sown Scots Pine , due to lack of grazing management . </t>
@@ -20690,7 +20498,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -20712,7 +20520,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Self_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -21531,7 +21339,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the shopping centre , the Conservative candidate and his supporters , decked in blue rosettes , thrust their campaign leaflets into largely willing hands and launched into a well-practised patter . </t>
+          <t xml:space="preserve">The Italian-built coaches , decked out in smart grey and aquamarine livery , combine with tracks embedded in shock absorbent material to give a smooth and quiet journey . </t>
         </is>
       </c>
     </row>
@@ -21553,7 +21361,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is a pretty flower decked pension located in the middle of the village , yet only 2 minutes from the lake shore . </t>
+          <t xml:space="preserve">In the shopping centre , the Conservative candidate and his supporters , decked in blue rosettes , thrust their campaign leaflets into largely willing hands and launched into a well-practised patter . </t>
         </is>
       </c>
     </row>
@@ -21575,7 +21383,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t xml:space="preserve">The house was decked in virginal white . </t>
+          <t xml:space="preserve">This is a pretty flower decked pension located in the middle of the village , yet only 2 minutes from the lake shore . </t>
         </is>
       </c>
     </row>
@@ -21597,7 +21405,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behind Grenadier Guards and lines of marching constables , coaches carried the sheriffs and other officials , their horses decked with black ribbons . </t>
+          <t xml:space="preserve">The house was decked in virginal white . </t>
         </is>
       </c>
     </row>
@@ -21619,7 +21427,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t xml:space="preserve">There were plenipotentiaries in court uniforms so decked with gold that their coats seemed like sheets of light . </t>
+          <t xml:space="preserve">Behind Grenadier Guards and lines of marching constables , coaches carried the sheriffs and other officials , their horses decked with black ribbons . </t>
         </is>
       </c>
     </row>
@@ -21641,7 +21449,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t xml:space="preserve">She lives high above the Embankment with her husband and a bull terrier , in a flat decked with the spoils of Eastern expeditions . </t>
+          <t xml:space="preserve">Dinner is served at a candlelit table decked out in fine linen and porcelain . </t>
         </is>
       </c>
     </row>
@@ -21663,7 +21471,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t xml:space="preserve">While Lucenzo looked through the displays on a gaily decked stall , Meredith gently extracted her father 's gold mask from the tissue in which he 'd carefully wrapped it . </t>
+          <t xml:space="preserve">There were plenipotentiaries in court uniforms so decked with gold that their coats seemed like sheets of light . </t>
         </is>
       </c>
     </row>
@@ -21678,10 +21486,14 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Abounding_with</t>
+        </is>
+      </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Italian-built coaches , decked out in smart grey and aquamarine livery , combine with tracks embedded in shock absorbent material to give a smooth and quiet journey . </t>
+          <t xml:space="preserve">She lives high above the Embankment with her husband and a bull terrier , in a flat decked with the spoils of Eastern expeditions . </t>
         </is>
       </c>
     </row>
@@ -21696,10 +21508,14 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Abounding_with</t>
+        </is>
+      </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dinner is served at a candlelit table decked out in fine linen and porcelain . </t>
+          <t xml:space="preserve">While Lucenzo looked through the displays on a gaily decked stall , Meredith gently extracted her father 's gold mask from the tissue in which he 'd carefully wrapped it . </t>
         </is>
       </c>
     </row>
@@ -23718,7 +23534,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Expertise</t>
+          <t>Perception_experience</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -25344,11 +25160,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>Remembering_information</t>
-        </is>
-      </c>
+      <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
           <t>Do n't forget the binocs . "</t>
@@ -25366,11 +25178,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>Remembering_information</t>
-        </is>
-      </c>
+      <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
           <t>When I tugged back a sleeve , the wrist was naked -- forgot my watch again -- and both hands chapped and rough .</t>
@@ -25388,11 +25196,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>Remembering_information</t>
-        </is>
-      </c>
+      <c r="C533" t="inlineStr"/>
       <c r="D533" t="inlineStr">
         <is>
           <t>In any case , do n't forget a raincoat , especially for British Columbia .</t>
@@ -25410,11 +25214,7 @@
           <t>Remembering_experience</t>
         </is>
       </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>Remembering_information</t>
-        </is>
-      </c>
+      <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
           <t xml:space="preserve">I will never forget entering the brilliantly lit theatre , gilded and hung with great chandeliers , and seeing the women in ethereally lovely dresses . </t>
@@ -27012,11 +26812,7 @@
           <t>Abounding_with</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>Completeness</t>
-        </is>
-      </c>
+      <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
           <t>We wish you and your family a new year full of joy and love .</t>
@@ -28430,11 +28226,7 @@
           <t>Filling</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>Placing</t>
-        </is>
-      </c>
+      <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
           <t xml:space="preserve">In a huge bare hall , trestle tables were heaped with children 's garments and there was a thick , stifling smell in the air . </t>
@@ -28452,11 +28244,7 @@
           <t>Filling</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>Placing</t>
-        </is>
-      </c>
+      <c r="C673" t="inlineStr"/>
       <c r="D673" t="inlineStr">
         <is>
           <t xml:space="preserve">A trolley was heaped with beer cans and plates of half-eaten burgers . </t>
@@ -28474,11 +28262,7 @@
           <t>Filling</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>Placing</t>
-        </is>
-      </c>
+      <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr">
         <is>
           <t xml:space="preserve">It was heaped with a grain something like rice . </t>
@@ -28804,11 +28588,7 @@
           <t>Measure_duration</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>Calendric_unit</t>
-        </is>
-      </c>
+      <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr">
         <is>
           <t>The quake knocked The Well out for six hours , but when it came back up , it teemed with emotional first-hand reports .</t>
@@ -29988,11 +29768,7 @@
           <t>Cause_harm</t>
         </is>
       </c>
-      <c r="C743" t="inlineStr">
-        <is>
-          <t>Cause_harm</t>
-        </is>
-      </c>
+      <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr">
         <is>
           <t>The quake knocked The Well out for six hours , but when it came back up , it teemed with emotional first-hand reports .</t>
@@ -30754,11 +30530,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C778" t="inlineStr">
-        <is>
-          <t>Departing</t>
-        </is>
-      </c>
+      <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
           <t>, High Holborn , had been left behind .</t>
@@ -30776,11 +30548,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C779" t="inlineStr">
-        <is>
-          <t>Departing</t>
-        </is>
-      </c>
+      <c r="C779" t="inlineStr"/>
       <c r="D779" t="inlineStr">
         <is>
           <t>Who knows , if the Gauguins were left on the island one day they might be worth -- '' I drew a breath -- ` twenty or even thirty thousand each ? ''</t>
@@ -30798,11 +30566,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>Departing</t>
-        </is>
-      </c>
+      <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
           <t>They were left on an indefensible island where the main streams of the Public School -- independent and fee-paying -- and the grammar school -- maintained and free -- diverged .</t>
@@ -30820,11 +30584,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>Departing</t>
-        </is>
-      </c>
+      <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
           <t>Eventually , in 1826 , Blake left the business , which continued under James Mann and his sons until 1846 , when James Mann died .</t>
@@ -30842,11 +30602,7 @@
           <t>Abandonment</t>
         </is>
       </c>
-      <c r="C782" t="inlineStr">
-        <is>
-          <t>Departing</t>
-        </is>
-      </c>
+      <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
           <t>Then he left her and went to bed .</t>
@@ -31856,7 +31612,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Success_or_failure</t>
+          <t>Hit_or_miss</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -32128,11 +31884,7 @@
           <t>Statement</t>
         </is>
       </c>
-      <c r="C841" t="inlineStr">
-        <is>
-          <t>Compliance</t>
-        </is>
-      </c>
+      <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr">
         <is>
           <t>In the torrent of replies that followed , one woman ringer from Solihull observed that `` the average male ringer leaves quite a lot to be desired : badly dressed , decorated with acne and a large beer-belly , frequently unwashed and unbearably flatulent in peals .</t>
@@ -36182,11 +35934,7 @@
           <t>Statement</t>
         </is>
       </c>
-      <c r="C1026" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
+      <c r="C1026" t="inlineStr"/>
       <c r="D1026" t="inlineStr">
         <is>
           <t>According to an intelligence report , cited by the Washington Times on 30 October 1997 , China completed construction in June 1997 of a dual - use plant in Iran for making glass - lined equipment used in producing chemical weapons .</t>
@@ -36442,11 +36190,7 @@
           <t>Custom</t>
         </is>
       </c>
-      <c r="C1038" t="inlineStr">
-        <is>
-          <t>Rite</t>
-        </is>
-      </c>
+      <c r="C1038" t="inlineStr"/>
       <c r="D1038" t="inlineStr">
         <is>
           <t>`` Ringers , she added , are `` filled with the solemn intoxication that comes of intricate ritual faultlessly performed .</t>
@@ -36508,11 +36252,7 @@
           <t>Stimulus_focus</t>
         </is>
       </c>
-      <c r="C1041" t="inlineStr">
-        <is>
-          <t>Emotion_directed</t>
-        </is>
-      </c>
+      <c r="C1041" t="inlineStr"/>
       <c r="D1041" t="inlineStr">
         <is>
           <t>It would be sad for Mr. Gonzalez to abandon them to appease his foes .</t>
@@ -36948,11 +36688,7 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C1061" t="inlineStr">
-        <is>
-          <t>Emotion_heat</t>
-        </is>
-      </c>
+      <c r="C1061" t="inlineStr"/>
       <c r="D1061" t="inlineStr">
         <is>
           <t>She was still quietly simmering from her interview with Naylor Massingham last Monday .</t>
@@ -36970,11 +36706,7 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C1062" t="inlineStr">
-        <is>
-          <t>Emotion_heat</t>
-        </is>
-      </c>
+      <c r="C1062" t="inlineStr"/>
       <c r="D1062" t="inlineStr">
         <is>
           <t>Later , when she went to the dining-room , Lucy was still simmering with resentment , and she knew that unless she pulled herself together it would begin to show .</t>
@@ -36992,11 +36724,7 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C1063" t="inlineStr">
-        <is>
-          <t>Emotion_heat</t>
-        </is>
-      </c>
+      <c r="C1063" t="inlineStr"/>
       <c r="D1063" t="inlineStr">
         <is>
           <t>But it had been simmering for a couple of years before that .</t>
@@ -37014,11 +36742,7 @@
           <t>Absorb_heat</t>
         </is>
       </c>
-      <c r="C1064" t="inlineStr">
-        <is>
-          <t>Emotion_heat</t>
-        </is>
-      </c>
+      <c r="C1064" t="inlineStr"/>
       <c r="D1064" t="inlineStr">
         <is>
           <t>There was a darkness in his eyes , anger simmering just beneath the surface .</t>
@@ -37918,12 +37642,12 @@
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Cause_fluidic_motion</t>
+          <t>Filling</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t xml:space="preserve">The thick fingers were spattered with blobs of bright paint . </t>
+          <t xml:space="preserve">No sooner had I thrown it into the toilet than it exploded and I was spattered with the pan 's contents . </t>
         </is>
       </c>
     </row>
@@ -37945,7 +37669,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">No sooner had I thrown it into the toilet than it exploded and I was spattered with the pan 's contents . </t>
+          <t xml:space="preserve">The thick fingers were spattered with blobs of bright paint . </t>
         </is>
       </c>
     </row>
@@ -38730,11 +38454,7 @@
           <t>Locale_by_use</t>
         </is>
       </c>
-      <c r="C1142" t="inlineStr">
-        <is>
-          <t>Shapes</t>
-        </is>
-      </c>
+      <c r="C1142" t="inlineStr"/>
       <c r="D1142" t="inlineStr">
         <is>
           <t>The village of Coloane is picturesque , with a central square lined with cafes .</t>
@@ -40534,11 +40254,7 @@
           <t>Mass_motion</t>
         </is>
       </c>
-      <c r="C1224" t="inlineStr">
-        <is>
-          <t>Abounding_with</t>
-        </is>
-      </c>
+      <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
           <t xml:space="preserve">As the boat docked , police swarmed on board . </t>
@@ -40754,11 +40470,7 @@
           <t>Cause_to_fragment</t>
         </is>
       </c>
-      <c r="C1234" t="inlineStr">
-        <is>
-          <t>Removing</t>
-        </is>
-      </c>
+      <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
           <t>The limbs and body of some large , white bird , torn savagely to pieces with the feathers still on , were littered all over it .</t>
@@ -40849,7 +40561,7 @@
       </c>
       <c r="D1238" t="inlineStr">
         <is>
-          <t xml:space="preserve">If the Universe is teeming with technological civilizations , why have they not come to visit us ? </t>
+          <t xml:space="preserve">Rare blue lizards scurry among the rocks of Petra ; clumps of black lilies grow beside the King 's Highway ; the few oases teem with birds . </t>
         </is>
       </c>
     </row>
@@ -40871,7 +40583,7 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>The quake knocked The Well out for six hours , but when it came back up , it teemed with emotional first-hand reports .</t>
+          <t xml:space="preserve">If the Universe is teeming with technological civilizations , why have they not come to visit us ? </t>
         </is>
       </c>
     </row>
@@ -40888,12 +40600,12 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rare blue lizards scurry among the rocks of Petra ; clumps of black lilies grow beside the King 's Highway ; the few oases teem with birds . </t>
+          <t xml:space="preserve">Until the 1940s , its beaches teemed with wildlife . </t>
         </is>
       </c>
     </row>
@@ -40910,12 +40622,12 @@
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Until the 1940s , its beaches teemed with wildlife . </t>
+          <t>The quake knocked The Well out for six hours , but when it came back up , it teemed with emotional first-hand reports .</t>
         </is>
       </c>
     </row>
@@ -41350,7 +41062,7 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr">
@@ -41372,7 +41084,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr">
@@ -41394,7 +41106,7 @@
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>Mass_motion</t>
+          <t>Abounding_with</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr">
@@ -42470,11 +42182,7 @@
           <t>Using</t>
         </is>
       </c>
-      <c r="C1312" t="inlineStr">
-        <is>
-          <t>Using</t>
-        </is>
-      </c>
+      <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
           <t>According to an intelligence report , cited by the Washington Times on 30 October 1997 , China completed construction in June 1997 of a dual - use plant in Iran for making glass - lined equipment used in producing chemical weapons .</t>
